--- a/biology/Botanique/Fécule_de_pomme_de_terre/Fécule_de_pomme_de_terre.xlsx
+++ b/biology/Botanique/Fécule_de_pomme_de_terre/Fécule_de_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9cule_de_pomme_de_terre</t>
+          <t>Fécule_de_pomme_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fécule de pomme de terre est l'amidon (appelé dans ce cas « fécule ») extrait des tubercules de pomme de terre.
 L'extraction de la fécule donne lieu à une importante activité industrielle, la « féculerie ». Les pommes de terre sont écrasées, ce qui libère les grains d'amidons (amyloplastes). L'amidon est ensuite lavé et desséché sous forme d'une poudre blanche.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9cule_de_pomme_de_terre</t>
+          <t>Fécule_de_pomme_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fécule de pomme de terre et ses dérivés ont de nombreuses applications alimentaires, par exemple pour préparer des nouilles, des pastilles de gomme, des amuse-gueule, des chips, des hot-dogs, de la crème pâtissière, ainsi que des soupes instantanées et des sauces, dans les recettes sans gluten[1], dans la cuisine kacher pour Pessa'h[2] et dans la cuisine asiatique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fécule de pomme de terre et ses dérivés ont de nombreuses applications alimentaires, par exemple pour préparer des nouilles, des pastilles de gomme, des amuse-gueule, des chips, des hot-dogs, de la crème pâtissière, ainsi que des soupes instantanées et des sauces, dans les recettes sans gluten, dans la cuisine kacher pour Pessa'h et dans la cuisine asiatique.
 En pâtisserie, par exemple dans le gâteau de Savoie, la fécule est utilisée pour conserver l'humidité du gâteau et lui donner une texture moelleuse. Elle sert aussi parfois à la préparation du fromage râpé pré-emballé, pour réduire l'exsudation et la prise en masse (anti-mottant).
 On l'emploie également dans des applications techniques comme la colle à papier peint, les apprêts et enduits des tissus, le couchage et l'enduction du papier et comme adhésif dans la sacherie de papier et les rubans de papier gommé. En ⁣⁣microbiologie⁣⁣, la fécule de pommes de terre sert d'ingrédient nutritif pour la confection de milieux de culture comme par exemple le milieu Löwenstein Jensen utile au diagnostic de la tuberculose.
 Grâce à l'amidon qu'elle contient, la fécule de pomme de terre a des effets hydratants, antioxydants et adoucissants. Elle répare en douceur le dessèchement de la peau, y compris le cuir chevelu.
